--- a/CountryEconomics.xlsx
+++ b/CountryEconomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chief\SWProjects\UniProjects\CSC3833\CSC3833_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52640D6A-B625-4A83-B323-33569A36D908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D29F3-A1B7-4917-A581-33FB33C8A6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1612,6 +1612,9 @@
     <t>['ALB', 'MKD', 'MNE', 'SRB']</t>
   </si>
   <si>
+    <t>XKK</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -2113,6 +2116,9 @@
     <t>['AGO', 'BWA', 'ZAF', 'ZMB']</t>
   </si>
   <si>
+    <t>NAM</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -3245,12 +3251,6 @@
   </si>
   <si>
     <t>ZWE</t>
-  </si>
-  <si>
-    <t>XKK</t>
-  </si>
-  <si>
-    <t>NAM</t>
   </si>
 </sst>
 </file>
@@ -3615,15 +3615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q90" zoomScale="76" workbookViewId="0">
-      <selection activeCell="V110" sqref="V110"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection sqref="A1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="25.77734375" customWidth="1"/>
-    <col min="14" max="22" width="20.77734375" customWidth="1"/>
+    <col min="1" max="22" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -3723,7 +3721,7 @@
         <v>652230</v>
       </c>
       <c r="J2">
-        <v>35.700000000000003</v>
+        <v>35700000</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
@@ -3788,7 +3786,7 @@
         <v>28748</v>
       </c>
       <c r="J3">
-        <v>2.36</v>
+        <v>2360000</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -3856,7 +3854,7 @@
         <v>2381741</v>
       </c>
       <c r="J4">
-        <v>46.81</v>
+        <v>46810000</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
@@ -3924,7 +3922,7 @@
         <v>1246700</v>
       </c>
       <c r="J5">
-        <v>35.119999999999997</v>
+        <v>35120000</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -3992,7 +3990,7 @@
         <v>2780400</v>
       </c>
       <c r="J6">
-        <v>47.07</v>
+        <v>47070000</v>
       </c>
       <c r="K6" t="s">
         <v>62</v>
@@ -4060,7 +4058,7 @@
         <v>29743</v>
       </c>
       <c r="J7">
-        <v>2.99</v>
+        <v>2990000</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
@@ -4125,7 +4123,7 @@
         <v>7692024</v>
       </c>
       <c r="J8">
-        <v>27.4</v>
+        <v>27400000</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -4190,7 +4188,7 @@
         <v>83871</v>
       </c>
       <c r="J9">
-        <v>9.1999999999999993</v>
+        <v>9200000</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -4258,7 +4256,7 @@
         <v>86600</v>
       </c>
       <c r="J10">
-        <v>10.18</v>
+        <v>10180000</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -4323,7 +4321,7 @@
         <v>13943</v>
       </c>
       <c r="J11">
-        <v>0.41</v>
+        <v>410000</v>
       </c>
       <c r="K11" t="s">
         <v>62</v>
@@ -4385,7 +4383,7 @@
         <v>765</v>
       </c>
       <c r="J12">
-        <v>1.59</v>
+        <v>1590000</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -4450,7 +4448,7 @@
         <v>147570</v>
       </c>
       <c r="J13">
-        <v>171.6</v>
+        <v>171600000</v>
       </c>
       <c r="K13" t="s">
         <v>27</v>
@@ -4518,7 +4516,7 @@
         <v>207600</v>
       </c>
       <c r="J14">
-        <v>9.11</v>
+        <v>9110000</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -4583,7 +4581,7 @@
         <v>30528</v>
       </c>
       <c r="J15">
-        <v>11.9</v>
+        <v>11900000</v>
       </c>
       <c r="K15" t="s">
         <v>36</v>
@@ -4651,7 +4649,7 @@
         <v>112622</v>
       </c>
       <c r="J16">
-        <v>13.75</v>
+        <v>13750000</v>
       </c>
       <c r="K16" t="s">
         <v>45</v>
@@ -4716,7 +4714,7 @@
         <v>38394</v>
       </c>
       <c r="J17">
-        <v>0.78</v>
+        <v>780000</v>
       </c>
       <c r="K17" t="s">
         <v>27</v>
@@ -4781,7 +4779,7 @@
         <v>1098581</v>
       </c>
       <c r="J18">
-        <v>12.41</v>
+        <v>12410000</v>
       </c>
       <c r="K18" t="s">
         <v>62</v>
@@ -4849,7 +4847,7 @@
         <v>51209</v>
       </c>
       <c r="J19">
-        <v>3.41</v>
+        <v>3410000</v>
       </c>
       <c r="K19" t="s">
         <v>36</v>
@@ -4917,7 +4915,7 @@
         <v>582000</v>
       </c>
       <c r="J20">
-        <v>2.52</v>
+        <v>2520000</v>
       </c>
       <c r="K20" t="s">
         <v>45</v>
@@ -4985,7 +4983,7 @@
         <v>8515767</v>
       </c>
       <c r="J21">
-        <v>212.58</v>
+        <v>212580000</v>
       </c>
       <c r="K21" t="s">
         <v>62</v>
@@ -5053,7 +5051,7 @@
         <v>5765</v>
       </c>
       <c r="J22">
-        <v>0.46</v>
+        <v>460000</v>
       </c>
       <c r="K22" t="s">
         <v>27</v>
@@ -5118,7 +5116,7 @@
         <v>110879</v>
       </c>
       <c r="J23">
-        <v>6.44</v>
+        <v>6440000</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -5186,7 +5184,7 @@
         <v>272967</v>
       </c>
       <c r="J24">
-        <v>23.4</v>
+        <v>23400000</v>
       </c>
       <c r="K24" t="s">
         <v>45</v>
@@ -5251,7 +5249,7 @@
         <v>27834</v>
       </c>
       <c r="J25">
-        <v>14.05</v>
+        <v>14050000</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
@@ -5316,7 +5314,7 @@
         <v>181035</v>
       </c>
       <c r="J26">
-        <v>17.64</v>
+        <v>17640000</v>
       </c>
       <c r="K26" t="s">
         <v>27</v>
@@ -5381,7 +5379,7 @@
         <v>475442</v>
       </c>
       <c r="J27">
-        <v>29.1</v>
+        <v>29100000</v>
       </c>
       <c r="K27" t="s">
         <v>45</v>
@@ -5449,7 +5447,7 @@
         <v>9984670</v>
       </c>
       <c r="J28">
-        <v>41.53</v>
+        <v>41530000</v>
       </c>
       <c r="K28" t="s">
         <v>62</v>
@@ -5517,7 +5515,7 @@
         <v>4033</v>
       </c>
       <c r="J29">
-        <v>0.59</v>
+        <v>590000</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -5582,7 +5580,7 @@
         <v>264</v>
       </c>
       <c r="J30">
-        <v>0.09</v>
+        <v>90000</v>
       </c>
       <c r="K30" t="s">
         <v>62</v>
@@ -5641,7 +5639,7 @@
         <v>622984</v>
       </c>
       <c r="J31">
-        <v>5.33</v>
+        <v>5330000</v>
       </c>
       <c r="K31" t="s">
         <v>45</v>
@@ -5706,7 +5704,7 @@
         <v>1284000</v>
       </c>
       <c r="J32">
-        <v>18.68</v>
+        <v>18680000</v>
       </c>
       <c r="K32" t="s">
         <v>45</v>
@@ -5771,7 +5769,7 @@
         <v>756102</v>
       </c>
       <c r="J33">
-        <v>18.48</v>
+        <v>18480000</v>
       </c>
       <c r="K33" t="s">
         <v>62</v>
@@ -5839,7 +5837,7 @@
         <v>9706961</v>
       </c>
       <c r="J34">
-        <v>1408</v>
+        <v>1408000000</v>
       </c>
       <c r="K34" t="s">
         <v>27</v>
@@ -5907,7 +5905,7 @@
         <v>1141748</v>
       </c>
       <c r="J35">
-        <v>52.97</v>
+        <v>52970000</v>
       </c>
       <c r="K35" t="s">
         <v>62</v>
@@ -5975,7 +5973,7 @@
         <v>1862</v>
       </c>
       <c r="J36">
-        <v>0.87</v>
+        <v>870000</v>
       </c>
       <c r="K36" t="s">
         <v>45</v>
@@ -6037,7 +6035,7 @@
         <v>51100</v>
       </c>
       <c r="J37">
-        <v>5.16</v>
+        <v>5160000</v>
       </c>
       <c r="K37" t="s">
         <v>62</v>
@@ -6105,7 +6103,7 @@
         <v>56594</v>
       </c>
       <c r="J38">
-        <v>3.86</v>
+        <v>3860000</v>
       </c>
       <c r="K38" t="s">
         <v>36</v>
@@ -6173,7 +6171,7 @@
         <v>109884</v>
       </c>
       <c r="J39">
-        <v>9.75</v>
+        <v>9750000</v>
       </c>
       <c r="K39" t="s">
         <v>62</v>
@@ -6235,7 +6233,7 @@
         <v>9251</v>
       </c>
       <c r="J40">
-        <v>0.98</v>
+        <v>980000</v>
       </c>
       <c r="K40" t="s">
         <v>36</v>
@@ -6300,7 +6298,7 @@
         <v>43094</v>
       </c>
       <c r="J41">
-        <v>5.96</v>
+        <v>5960000</v>
       </c>
       <c r="K41" t="s">
         <v>36</v>
@@ -6368,7 +6366,7 @@
         <v>23200</v>
       </c>
       <c r="J42">
-        <v>1.17</v>
+        <v>1170000</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
@@ -6433,7 +6431,7 @@
         <v>48671</v>
       </c>
       <c r="J43">
-        <v>10.8</v>
+        <v>10800000</v>
       </c>
       <c r="K43" t="s">
         <v>62</v>
@@ -6501,7 +6499,7 @@
         <v>276841</v>
       </c>
       <c r="J44">
-        <v>17.97</v>
+        <v>17970000</v>
       </c>
       <c r="K44" t="s">
         <v>62</v>
@@ -6569,7 +6567,7 @@
         <v>1002450</v>
       </c>
       <c r="J45">
-        <v>107.2</v>
+        <v>107200000</v>
       </c>
       <c r="K45" t="s">
         <v>45</v>
@@ -6637,7 +6635,7 @@
         <v>21041</v>
       </c>
       <c r="J46">
-        <v>6.31</v>
+        <v>6310000</v>
       </c>
       <c r="K46" t="s">
         <v>62</v>
@@ -6705,7 +6703,7 @@
         <v>28051</v>
       </c>
       <c r="J47">
-        <v>1.89</v>
+        <v>1890000</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
@@ -6770,7 +6768,7 @@
         <v>117600</v>
       </c>
       <c r="J48">
-        <v>3.21</v>
+        <v>3210000</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
@@ -6832,7 +6830,7 @@
         <v>45227</v>
       </c>
       <c r="J49">
-        <v>1.38</v>
+        <v>1380000</v>
       </c>
       <c r="K49" t="s">
         <v>36</v>
@@ -6900,7 +6898,7 @@
         <v>1104300</v>
       </c>
       <c r="J50">
-        <v>132.06</v>
+        <v>132060000</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
@@ -6965,7 +6963,7 @@
         <v>18272</v>
       </c>
       <c r="J51">
-        <v>0.93</v>
+        <v>930000</v>
       </c>
       <c r="K51" t="s">
         <v>79</v>
@@ -7027,7 +7025,7 @@
         <v>338424</v>
       </c>
       <c r="J52">
-        <v>5.6</v>
+        <v>5600000</v>
       </c>
       <c r="K52" t="s">
         <v>36</v>
@@ -7095,7 +7093,7 @@
         <v>551695</v>
       </c>
       <c r="J53">
-        <v>68.44</v>
+        <v>68440000</v>
       </c>
       <c r="K53" t="s">
         <v>36</v>
@@ -7163,7 +7161,7 @@
         <v>267668</v>
       </c>
       <c r="J54">
-        <v>2.54</v>
+        <v>2540000</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
@@ -7228,7 +7226,7 @@
         <v>10689</v>
       </c>
       <c r="J55">
-        <v>2.76</v>
+        <v>2760000</v>
       </c>
       <c r="K55" t="s">
         <v>45</v>
@@ -7293,7 +7291,7 @@
         <v>69700</v>
       </c>
       <c r="J56">
-        <v>3.71</v>
+        <v>3710000</v>
       </c>
       <c r="K56" t="s">
         <v>27</v>
@@ -7358,7 +7356,7 @@
         <v>357114</v>
       </c>
       <c r="J57">
-        <v>83.6</v>
+        <v>83600000</v>
       </c>
       <c r="K57" t="s">
         <v>36</v>
@@ -7426,7 +7424,7 @@
         <v>238533</v>
       </c>
       <c r="J58">
-        <v>34.43</v>
+        <v>34430000</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
@@ -7494,7 +7492,7 @@
         <v>131990</v>
       </c>
       <c r="J59">
-        <v>10.41</v>
+        <v>10410000</v>
       </c>
       <c r="K59" t="s">
         <v>36</v>
@@ -7562,7 +7560,7 @@
         <v>108889</v>
       </c>
       <c r="J60">
-        <v>17.84</v>
+        <v>17840000</v>
       </c>
       <c r="K60" t="s">
         <v>62</v>
@@ -7627,7 +7625,7 @@
         <v>245857</v>
       </c>
       <c r="J61">
-        <v>13.99</v>
+        <v>13990000</v>
       </c>
       <c r="K61" t="s">
         <v>45</v>
@@ -7692,7 +7690,7 @@
         <v>214969</v>
       </c>
       <c r="J62">
-        <v>0.78</v>
+        <v>780000</v>
       </c>
       <c r="K62" t="s">
         <v>62</v>
@@ -7757,7 +7755,7 @@
         <v>27750</v>
       </c>
       <c r="J63">
-        <v>11.9</v>
+        <v>11900000</v>
       </c>
       <c r="K63" t="s">
         <v>62</v>
@@ -7822,7 +7820,7 @@
         <v>112492</v>
       </c>
       <c r="J64">
-        <v>9.89</v>
+        <v>9890000</v>
       </c>
       <c r="K64" t="s">
         <v>62</v>
@@ -7890,7 +7888,7 @@
         <v>1104</v>
       </c>
       <c r="J65">
-        <v>7.53</v>
+        <v>7530000</v>
       </c>
       <c r="K65" t="s">
         <v>27</v>
@@ -7958,7 +7956,7 @@
         <v>93028</v>
       </c>
       <c r="J66">
-        <v>9.58</v>
+        <v>9580000</v>
       </c>
       <c r="K66" t="s">
         <v>36</v>
@@ -8026,7 +8024,7 @@
         <v>103000</v>
       </c>
       <c r="J67">
-        <v>0.39</v>
+        <v>390000</v>
       </c>
       <c r="K67" t="s">
         <v>36</v>
@@ -8091,7 +8089,7 @@
         <v>3287590</v>
       </c>
       <c r="J68">
-        <v>1398.6</v>
+        <v>1398600000</v>
       </c>
       <c r="K68" t="s">
         <v>27</v>
@@ -8159,7 +8157,7 @@
         <v>1904569</v>
       </c>
       <c r="J69">
-        <v>281.60000000000002</v>
+        <v>281600000</v>
       </c>
       <c r="K69" t="s">
         <v>27</v>
@@ -8227,7 +8225,7 @@
         <v>1648195</v>
       </c>
       <c r="J70">
-        <v>86</v>
+        <v>86000000</v>
       </c>
       <c r="K70" t="s">
         <v>27</v>
@@ -8292,7 +8290,7 @@
         <v>438317</v>
       </c>
       <c r="J71">
-        <v>46.04</v>
+        <v>46040000</v>
       </c>
       <c r="K71" t="s">
         <v>27</v>
@@ -8357,7 +8355,7 @@
         <v>70273</v>
       </c>
       <c r="J72">
-        <v>5.44</v>
+        <v>5440000</v>
       </c>
       <c r="K72" t="s">
         <v>36</v>
@@ -8425,7 +8423,7 @@
         <v>20770</v>
       </c>
       <c r="J73">
-        <v>9.9700000000000006</v>
+        <v>9970000</v>
       </c>
       <c r="K73" t="s">
         <v>27</v>
@@ -8493,7 +8491,7 @@
         <v>301336</v>
       </c>
       <c r="J74">
-        <v>58.93</v>
+        <v>58930000</v>
       </c>
       <c r="K74" t="s">
         <v>36</v>
@@ -8561,7 +8559,7 @@
         <v>322463</v>
       </c>
       <c r="J75">
-        <v>31.93</v>
+        <v>31930000</v>
       </c>
       <c r="K75" t="s">
         <v>45</v>
@@ -8626,7 +8624,7 @@
         <v>10991</v>
       </c>
       <c r="J76">
-        <v>2.82</v>
+        <v>2820000</v>
       </c>
       <c r="K76" t="s">
         <v>62</v>
@@ -8691,7 +8689,7 @@
         <v>377930</v>
       </c>
       <c r="J77">
-        <v>120.65</v>
+        <v>120650000</v>
       </c>
       <c r="K77" t="s">
         <v>27</v>
@@ -8756,7 +8754,7 @@
         <v>89342</v>
       </c>
       <c r="J78">
-        <v>11.73</v>
+        <v>11730000</v>
       </c>
       <c r="K78" t="s">
         <v>27</v>
@@ -8821,7 +8819,7 @@
         <v>2724900</v>
       </c>
       <c r="J79">
-        <v>20.27</v>
+        <v>20270000</v>
       </c>
       <c r="K79" t="s">
         <v>27</v>
@@ -8889,7 +8887,7 @@
         <v>580367</v>
       </c>
       <c r="J80">
-        <v>52.4</v>
+        <v>52400000</v>
       </c>
       <c r="K80" t="s">
         <v>45</v>
@@ -8957,7 +8955,7 @@
         <v>10908</v>
       </c>
       <c r="J81">
-        <v>1.6</v>
+        <v>1600000</v>
       </c>
       <c r="K81" t="s">
         <v>36</v>
@@ -8987,24 +8985,24 @@
         <v>-9</v>
       </c>
       <c r="V81" t="s">
-        <v>1075</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B82">
         <v>414</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D82" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E82" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F82" t="s">
         <v>44</v>
@@ -9019,7 +9017,7 @@
         <v>17818</v>
       </c>
       <c r="J82">
-        <v>4.79</v>
+        <v>4790000</v>
       </c>
       <c r="K82" t="s">
         <v>27</v>
@@ -9028,7 +9026,7 @@
         <v>71</v>
       </c>
       <c r="M82" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N82">
         <v>160</v>
@@ -9055,27 +9053,27 @@
         <v>28.2</v>
       </c>
       <c r="V82" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B83">
         <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D83" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E83" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F83" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G83">
         <v>41</v>
@@ -9087,7 +9085,7 @@
         <v>199951</v>
       </c>
       <c r="J83">
-        <v>7.3</v>
+        <v>7300000</v>
       </c>
       <c r="K83" t="s">
         <v>27</v>
@@ -9096,7 +9094,7 @@
         <v>517</v>
       </c>
       <c r="M83" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N83">
         <v>17</v>
@@ -9120,27 +9118,27 @@
         <v>-25.2</v>
       </c>
       <c r="V83" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B84">
         <v>418</v>
       </c>
       <c r="C84" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F84" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G84">
         <v>18</v>
@@ -9152,7 +9150,7 @@
         <v>236800</v>
       </c>
       <c r="J84">
-        <v>7.65</v>
+        <v>7650000</v>
       </c>
       <c r="K84" t="s">
         <v>27</v>
@@ -9161,7 +9159,7 @@
         <v>176</v>
       </c>
       <c r="M84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N84">
         <v>17</v>
@@ -9185,27 +9183,27 @@
         <v>3.22</v>
       </c>
       <c r="V84" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B85">
         <v>428</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D85" t="s">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F85" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G85">
         <v>57</v>
@@ -9217,7 +9215,7 @@
         <v>64559</v>
       </c>
       <c r="J85">
-        <v>1.87</v>
+        <v>1870000</v>
       </c>
       <c r="K85" t="s">
         <v>36</v>
@@ -9226,7 +9224,7 @@
         <v>293</v>
       </c>
       <c r="M85" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N85">
         <v>44</v>
@@ -9253,24 +9251,24 @@
         <v>-2.1</v>
       </c>
       <c r="V85" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B86">
         <v>422</v>
       </c>
       <c r="C86" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E86" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F86" t="s">
         <v>44</v>
@@ -9285,7 +9283,7 @@
         <v>10452</v>
       </c>
       <c r="J86">
-        <v>5.8</v>
+        <v>5800000</v>
       </c>
       <c r="K86" t="s">
         <v>27</v>
@@ -9294,7 +9292,7 @@
         <v>71</v>
       </c>
       <c r="M86" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N86">
         <v>20</v>
@@ -9318,24 +9316,24 @@
         <v>-31.5</v>
       </c>
       <c r="V86" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B87">
         <v>426</v>
       </c>
       <c r="C87" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E87" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F87" t="s">
         <v>78</v>
@@ -9350,7 +9348,7 @@
         <v>30355</v>
       </c>
       <c r="J87">
-        <v>2.34</v>
+        <v>2340000</v>
       </c>
       <c r="K87" t="s">
         <v>45</v>
@@ -9359,7 +9357,7 @@
         <v>162</v>
       </c>
       <c r="M87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N87">
         <v>2</v>
@@ -9386,24 +9384,24 @@
         <v>-0.4</v>
       </c>
       <c r="V87" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88">
         <v>430</v>
       </c>
       <c r="C88" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D88" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E88" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F88" t="s">
         <v>78</v>
@@ -9418,7 +9416,7 @@
         <v>111369</v>
       </c>
       <c r="J88">
-        <v>5.61</v>
+        <v>5610000</v>
       </c>
       <c r="K88" t="s">
         <v>45</v>
@@ -9427,7 +9425,7 @@
         <v>134</v>
       </c>
       <c r="M88" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N88">
         <v>5</v>
@@ -9451,24 +9449,24 @@
         <v>14.2</v>
       </c>
       <c r="V88" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B89">
         <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F89" t="s">
         <v>44</v>
@@ -9483,7 +9481,7 @@
         <v>1759540</v>
       </c>
       <c r="J89">
-        <v>7.38</v>
+        <v>7380000</v>
       </c>
       <c r="K89" t="s">
         <v>45</v>
@@ -9492,7 +9490,7 @@
         <v>46</v>
       </c>
       <c r="M89" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N89">
         <v>47</v>
@@ -9516,24 +9514,24 @@
         <v>18.5</v>
       </c>
       <c r="V89" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B90">
         <v>438</v>
       </c>
       <c r="C90" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D90" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E90" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F90" t="s">
         <v>86</v>
@@ -9548,7 +9546,7 @@
         <v>160</v>
       </c>
       <c r="J90">
-        <v>0.04</v>
+        <v>40000</v>
       </c>
       <c r="K90" t="s">
         <v>36</v>
@@ -9557,7 +9555,7 @@
         <v>126</v>
       </c>
       <c r="M90" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N90">
         <v>8</v>
@@ -9569,27 +9567,27 @@
         <v>1.6</v>
       </c>
       <c r="V90" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B91">
         <v>440</v>
       </c>
       <c r="C91" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D91" t="s">
         <v>84</v>
       </c>
       <c r="E91" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F91" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G91">
         <v>56</v>
@@ -9601,7 +9599,7 @@
         <v>65300</v>
       </c>
       <c r="J91">
-        <v>2.89</v>
+        <v>2890000</v>
       </c>
       <c r="K91" t="s">
         <v>36</v>
@@ -9610,7 +9608,7 @@
         <v>293</v>
       </c>
       <c r="M91" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N91">
         <v>85</v>
@@ -9637,24 +9635,24 @@
         <v>1.9</v>
       </c>
       <c r="V91" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B92">
         <v>442</v>
       </c>
       <c r="C92" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D92" t="s">
         <v>84</v>
       </c>
       <c r="E92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F92" t="s">
         <v>86</v>
@@ -9669,7 +9667,7 @@
         <v>2586</v>
       </c>
       <c r="J92">
-        <v>0.67</v>
+        <v>670000</v>
       </c>
       <c r="K92" t="s">
         <v>36</v>
@@ -9678,7 +9676,7 @@
         <v>126</v>
       </c>
       <c r="M92" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N92">
         <v>93</v>
@@ -9705,21 +9703,21 @@
         <v>6.9</v>
       </c>
       <c r="V92" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93">
         <v>446</v>
       </c>
       <c r="C93" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D93" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F93" t="s">
         <v>53</v>
@@ -9734,7 +9732,7 @@
         <v>30</v>
       </c>
       <c r="J93">
-        <v>0.69</v>
+        <v>690000</v>
       </c>
       <c r="K93" t="s">
         <v>27</v>
@@ -9761,24 +9759,24 @@
         <v>31.4</v>
       </c>
       <c r="V93" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B94">
         <v>450</v>
       </c>
       <c r="C94" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D94" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F94" t="s">
         <v>133</v>
@@ -9793,7 +9791,7 @@
         <v>587041</v>
       </c>
       <c r="J94">
-        <v>31.96</v>
+        <v>31960000</v>
       </c>
       <c r="K94" t="s">
         <v>45</v>
@@ -9823,24 +9821,24 @@
         <v>-4.5</v>
       </c>
       <c r="V94" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B95">
         <v>454</v>
       </c>
       <c r="C95" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D95" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E95" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F95" t="s">
         <v>78</v>
@@ -9855,7 +9853,7 @@
         <v>118484</v>
       </c>
       <c r="J95">
-        <v>20.3</v>
+        <v>20300000</v>
       </c>
       <c r="K95" t="s">
         <v>45</v>
@@ -9864,7 +9862,7 @@
         <v>195</v>
       </c>
       <c r="M95" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N95">
         <v>11</v>
@@ -9888,24 +9886,24 @@
         <v>-19.5</v>
       </c>
       <c r="V95" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96">
         <v>458</v>
       </c>
       <c r="C96" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D96" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E96" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F96" t="s">
         <v>78</v>
@@ -9920,7 +9918,7 @@
         <v>330803</v>
       </c>
       <c r="J96">
-        <v>34.1</v>
+        <v>34100000</v>
       </c>
       <c r="K96" t="s">
         <v>27</v>
@@ -9929,7 +9927,7 @@
         <v>176</v>
       </c>
       <c r="M96" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N96">
         <v>422</v>
@@ -9956,27 +9954,27 @@
         <v>1.7</v>
       </c>
       <c r="V96" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B97">
         <v>462</v>
       </c>
       <c r="C97" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D97" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E97" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F97" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G97">
         <v>3.25</v>
@@ -9988,7 +9986,7 @@
         <v>300</v>
       </c>
       <c r="J97">
-        <v>0.53</v>
+        <v>530000</v>
       </c>
       <c r="K97" t="s">
         <v>27</v>
@@ -10018,24 +10016,24 @@
         <v>-20.399999999999999</v>
       </c>
       <c r="V97" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B98">
         <v>466</v>
       </c>
       <c r="C98" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D98" t="s">
         <v>131</v>
       </c>
       <c r="E98" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F98" t="s">
         <v>133</v>
@@ -10050,7 +10048,7 @@
         <v>1240192</v>
       </c>
       <c r="J98">
-        <v>24.48</v>
+        <v>24480000</v>
       </c>
       <c r="K98" t="s">
         <v>45</v>
@@ -10059,7 +10057,7 @@
         <v>134</v>
       </c>
       <c r="M98" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N98">
         <v>27</v>
@@ -10080,24 +10078,24 @@
         <v>-7.44</v>
       </c>
       <c r="V98" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B99">
         <v>470</v>
       </c>
       <c r="C99" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D99" t="s">
         <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F99" t="s">
         <v>78</v>
@@ -10112,7 +10110,7 @@
         <v>316</v>
       </c>
       <c r="J99">
-        <v>0.56999999999999995</v>
+        <v>570000</v>
       </c>
       <c r="K99" t="s">
         <v>36</v>
@@ -10145,24 +10143,24 @@
         <v>5.7</v>
       </c>
       <c r="V99" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B100">
         <v>478</v>
       </c>
       <c r="C100" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D100" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E100" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F100" t="s">
         <v>44</v>
@@ -10177,7 +10175,7 @@
         <v>1030700</v>
       </c>
       <c r="J100">
-        <v>5.17</v>
+        <v>5170000</v>
       </c>
       <c r="K100" t="s">
         <v>45</v>
@@ -10186,7 +10184,7 @@
         <v>134</v>
       </c>
       <c r="M100" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N100">
         <v>11</v>
@@ -10210,24 +10208,24 @@
         <v>-9</v>
       </c>
       <c r="V100" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B101">
         <v>480</v>
       </c>
       <c r="C101" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D101" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E101" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F101" t="s">
         <v>78</v>
@@ -10242,7 +10240,7 @@
         <v>2040</v>
       </c>
       <c r="J101">
-        <v>1.26</v>
+        <v>1260000</v>
       </c>
       <c r="K101" t="s">
         <v>45</v>
@@ -10275,24 +10273,24 @@
         <v>-4.2</v>
       </c>
       <c r="V101" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B102">
         <v>484</v>
       </c>
       <c r="C102" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D102" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E102" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F102" t="s">
         <v>242</v>
@@ -10307,7 +10305,7 @@
         <v>1964375</v>
       </c>
       <c r="J102">
-        <v>130.86000000000001</v>
+        <v>130860000</v>
       </c>
       <c r="K102" t="s">
         <v>62</v>
@@ -10316,7 +10314,7 @@
         <v>215</v>
       </c>
       <c r="M102" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N102">
         <v>1853</v>
@@ -10343,27 +10341,27 @@
         <v>-0.8</v>
       </c>
       <c r="V102" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B103">
         <v>498</v>
       </c>
       <c r="C103" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D103" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E103" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F103" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G103">
         <v>47</v>
@@ -10375,7 +10373,7 @@
         <v>33846</v>
       </c>
       <c r="J103">
-        <v>2.42</v>
+        <v>2420000</v>
       </c>
       <c r="K103" t="s">
         <v>36</v>
@@ -10384,7 +10382,7 @@
         <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N103">
         <v>18</v>
@@ -10411,24 +10409,24 @@
         <v>-11.9</v>
       </c>
       <c r="V103" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B104">
         <v>492</v>
       </c>
       <c r="C104" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D104" t="s">
         <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F104" t="s">
         <v>133</v>
@@ -10443,7 +10441,7 @@
         <v>2.02</v>
       </c>
       <c r="J104">
-        <v>0.04</v>
+        <v>40000</v>
       </c>
       <c r="K104" t="s">
         <v>36</v>
@@ -10452,33 +10450,33 @@
         <v>126</v>
       </c>
       <c r="M104" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N104">
         <v>10</v>
       </c>
       <c r="V104" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B105">
         <v>496</v>
       </c>
       <c r="C105" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D105" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E105" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F105" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G105">
         <v>46</v>
@@ -10490,7 +10488,7 @@
         <v>1564110</v>
       </c>
       <c r="J105">
-        <v>3.54</v>
+        <v>3540000</v>
       </c>
       <c r="K105" t="s">
         <v>27</v>
@@ -10499,7 +10497,7 @@
         <v>250</v>
       </c>
       <c r="M105" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N105">
         <v>24</v>
@@ -10526,27 +10524,27 @@
         <v>-6.9</v>
       </c>
       <c r="V105" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B106">
         <v>499</v>
       </c>
       <c r="C106" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D106" t="s">
         <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F106" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G106">
         <v>42.5</v>
@@ -10558,7 +10556,7 @@
         <v>13812</v>
       </c>
       <c r="J106">
-        <v>0.62</v>
+        <v>620000</v>
       </c>
       <c r="K106" t="s">
         <v>36</v>
@@ -10567,7 +10565,7 @@
         <v>37</v>
       </c>
       <c r="M106" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N106">
         <v>8</v>
@@ -10588,24 +10586,24 @@
         <v>-17.5</v>
       </c>
       <c r="V106" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B107">
         <v>504</v>
       </c>
       <c r="C107" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D107" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E107" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F107" t="s">
         <v>44</v>
@@ -10620,7 +10618,7 @@
         <v>446550</v>
       </c>
       <c r="J107">
-        <v>37.369999999999997</v>
+        <v>37370000</v>
       </c>
       <c r="K107" t="s">
         <v>45</v>
@@ -10629,7 +10627,7 @@
         <v>46</v>
       </c>
       <c r="M107" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N107">
         <v>154</v>
@@ -10656,24 +10654,24 @@
         <v>-2.8</v>
       </c>
       <c r="V107" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B108">
         <v>508</v>
       </c>
       <c r="C108" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D108" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E108" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F108" t="s">
         <v>53</v>
@@ -10688,7 +10686,7 @@
         <v>801590</v>
       </c>
       <c r="J108">
-        <v>33.24</v>
+        <v>33240000</v>
       </c>
       <c r="K108" t="s">
         <v>45</v>
@@ -10697,7 +10695,7 @@
         <v>195</v>
       </c>
       <c r="M108" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N108">
         <v>22</v>
@@ -10724,27 +10722,27 @@
         <v>-11.1</v>
       </c>
       <c r="V108" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B109">
         <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D109" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E109" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F109" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G109">
         <v>22</v>
@@ -10756,7 +10754,7 @@
         <v>676578</v>
       </c>
       <c r="J109">
-        <v>54.5</v>
+        <v>54500000</v>
       </c>
       <c r="K109" t="s">
         <v>27</v>
@@ -10765,7 +10763,7 @@
         <v>176</v>
       </c>
       <c r="M109" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N109">
         <v>74</v>
@@ -10789,24 +10787,24 @@
         <v>-5.5</v>
       </c>
       <c r="V109" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B110">
         <v>516</v>
       </c>
       <c r="D110" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E110" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F110" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G110">
         <v>-22</v>
@@ -10818,7 +10816,7 @@
         <v>825615</v>
       </c>
       <c r="J110">
-        <v>2.69</v>
+        <v>2690000</v>
       </c>
       <c r="K110" t="s">
         <v>45</v>
@@ -10827,7 +10825,7 @@
         <v>162</v>
       </c>
       <c r="M110" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N110">
         <v>13</v>
@@ -10854,27 +10852,27 @@
         <v>-15.3</v>
       </c>
       <c r="V110" t="s">
-        <v>1076</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B111">
         <v>524</v>
       </c>
       <c r="C111" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D111" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E111" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F111" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G111">
         <v>28</v>
@@ -10886,7 +10884,7 @@
         <v>147181</v>
       </c>
       <c r="J111">
-        <v>29.65</v>
+        <v>29650000</v>
       </c>
       <c r="K111" t="s">
         <v>27</v>
@@ -10919,27 +10917,27 @@
         <v>5.2</v>
       </c>
       <c r="V111" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B112">
         <v>528</v>
       </c>
       <c r="C112" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D112" t="s">
         <v>84</v>
       </c>
       <c r="E112" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F112" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G112">
         <v>52.5</v>
@@ -10951,7 +10949,7 @@
         <v>41850</v>
       </c>
       <c r="J112">
-        <v>18.04</v>
+        <v>18040000</v>
       </c>
       <c r="K112" t="s">
         <v>36</v>
@@ -10960,7 +10958,7 @@
         <v>126</v>
       </c>
       <c r="M112" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N112">
         <v>1228</v>
@@ -10987,24 +10985,24 @@
         <v>9.1</v>
       </c>
       <c r="V112" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B113">
         <v>540</v>
       </c>
       <c r="C113" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D113" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E113" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F113" t="s">
         <v>133</v>
@@ -11019,7 +11017,7 @@
         <v>18575</v>
       </c>
       <c r="J113">
-        <v>0.28999999999999998</v>
+        <v>290000</v>
       </c>
       <c r="K113" t="s">
         <v>79</v>
@@ -11040,24 +11038,24 @@
         <v>11.2</v>
       </c>
       <c r="V113" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B114">
         <v>554</v>
       </c>
       <c r="C114" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D114" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E114" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F114" t="s">
         <v>78</v>
@@ -11072,7 +11070,7 @@
         <v>270467</v>
       </c>
       <c r="J114">
-        <v>5.36</v>
+        <v>5360000</v>
       </c>
       <c r="K114" t="s">
         <v>79</v>
@@ -11105,24 +11103,24 @@
         <v>-5.7</v>
       </c>
       <c r="V114" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B115">
         <v>558</v>
       </c>
       <c r="C115" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D115" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E115" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F115" t="s">
         <v>242</v>
@@ -11137,7 +11135,7 @@
         <v>130373</v>
       </c>
       <c r="J115">
-        <v>6.87</v>
+        <v>6870000</v>
       </c>
       <c r="K115" t="s">
         <v>62</v>
@@ -11146,7 +11144,7 @@
         <v>268</v>
       </c>
       <c r="M115" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N115">
         <v>20</v>
@@ -11170,24 +11168,24 @@
         <v>4.2</v>
       </c>
       <c r="V115" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B116">
         <v>562</v>
       </c>
       <c r="C116" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D116" t="s">
         <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F116" t="s">
         <v>133</v>
@@ -11202,7 +11200,7 @@
         <v>1267000</v>
       </c>
       <c r="J116">
-        <v>27.03</v>
+        <v>27030000</v>
       </c>
       <c r="K116" t="s">
         <v>45</v>
@@ -11211,7 +11209,7 @@
         <v>134</v>
       </c>
       <c r="M116" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N116">
         <v>20</v>
@@ -11235,24 +11233,24 @@
         <v>-6.86</v>
       </c>
       <c r="V116" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B117">
         <v>566</v>
       </c>
       <c r="C117" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D117" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E117" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F117" t="s">
         <v>78</v>
@@ -11267,7 +11265,7 @@
         <v>923768</v>
       </c>
       <c r="J117">
-        <v>232.68</v>
+        <v>232680000</v>
       </c>
       <c r="K117" t="s">
         <v>45</v>
@@ -11276,7 +11274,7 @@
         <v>134</v>
       </c>
       <c r="M117" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N117">
         <v>188</v>
@@ -11303,27 +11301,27 @@
         <v>-0.5</v>
       </c>
       <c r="V117" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B118">
         <v>578</v>
       </c>
       <c r="C118" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D118" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E118" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F118" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G118">
         <v>62</v>
@@ -11335,7 +11333,7 @@
         <v>323802</v>
       </c>
       <c r="J118">
-        <v>5.55</v>
+        <v>5550000</v>
       </c>
       <c r="K118" t="s">
         <v>36</v>
@@ -11344,7 +11342,7 @@
         <v>293</v>
       </c>
       <c r="M118" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N118">
         <v>484</v>
@@ -11371,24 +11369,24 @@
         <v>16.7</v>
       </c>
       <c r="V118" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B119">
         <v>512</v>
       </c>
       <c r="C119" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D119" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E119" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F119" t="s">
         <v>44</v>
@@ -11403,7 +11401,7 @@
         <v>309500</v>
       </c>
       <c r="J119">
-        <v>5.27</v>
+        <v>5270000</v>
       </c>
       <c r="K119" t="s">
         <v>27</v>
@@ -11412,7 +11410,7 @@
         <v>71</v>
       </c>
       <c r="M119" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N119">
         <v>107</v>
@@ -11436,24 +11434,24 @@
         <v>5</v>
       </c>
       <c r="V119" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B120">
         <v>586</v>
       </c>
       <c r="C120" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D120" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E120" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F120" t="s">
         <v>78</v>
@@ -11468,7 +11466,7 @@
         <v>881912</v>
       </c>
       <c r="J120">
-        <v>251.27</v>
+        <v>251270000</v>
       </c>
       <c r="K120" t="s">
         <v>27</v>
@@ -11477,7 +11475,7 @@
         <v>28</v>
       </c>
       <c r="M120" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N120">
         <v>373</v>
@@ -11504,24 +11502,24 @@
         <v>-0.5</v>
       </c>
       <c r="V120" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B121">
         <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D121" t="s">
         <v>315</v>
       </c>
       <c r="E121" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F121" t="s">
         <v>44</v>
@@ -11536,7 +11534,7 @@
         <v>6220</v>
       </c>
       <c r="J121">
-        <v>5.61</v>
+        <v>5610000</v>
       </c>
       <c r="K121" t="s">
         <v>27</v>
@@ -11545,7 +11543,7 @@
         <v>71</v>
       </c>
       <c r="M121" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N121">
         <v>14</v>
@@ -11566,24 +11564,24 @@
         <v>-21.1</v>
       </c>
       <c r="V121" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B122">
         <v>591</v>
       </c>
       <c r="C122" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D122" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E122" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F122" t="s">
         <v>242</v>
@@ -11598,7 +11596,7 @@
         <v>75417</v>
       </c>
       <c r="J122">
-        <v>4.5199999999999996</v>
+        <v>4520000</v>
       </c>
       <c r="K122" t="s">
         <v>62</v>
@@ -11607,7 +11605,7 @@
         <v>268</v>
       </c>
       <c r="M122" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N122">
         <v>86</v>
@@ -11631,24 +11629,24 @@
         <v>-0.4</v>
       </c>
       <c r="V122" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B123">
         <v>598</v>
       </c>
       <c r="C123" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D123" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E123" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F123" t="s">
         <v>78</v>
@@ -11663,7 +11661,7 @@
         <v>462840</v>
       </c>
       <c r="J123">
-        <v>10.58</v>
+        <v>10580000</v>
       </c>
       <c r="K123" t="s">
         <v>79</v>
@@ -11672,7 +11670,7 @@
         <v>352</v>
       </c>
       <c r="M123" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N123">
         <v>33</v>
@@ -11696,27 +11694,27 @@
         <v>17.399999999999999</v>
       </c>
       <c r="V123" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B124">
         <v>600</v>
       </c>
       <c r="C124" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D124" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E124" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F124" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G124">
         <v>-23</v>
@@ -11728,7 +11726,7 @@
         <v>406752</v>
       </c>
       <c r="J124">
-        <v>7.66</v>
+        <v>7660000</v>
       </c>
       <c r="K124" t="s">
         <v>62</v>
@@ -11737,7 +11735,7 @@
         <v>63</v>
       </c>
       <c r="M124" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N124">
         <v>44</v>
@@ -11764,24 +11762,24 @@
         <v>-3.9</v>
       </c>
       <c r="V124" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B125">
         <v>604</v>
       </c>
       <c r="C125" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D125" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E125" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F125" t="s">
         <v>148</v>
@@ -11796,7 +11794,7 @@
         <v>1285216</v>
       </c>
       <c r="J125">
-        <v>34.04</v>
+        <v>34040000</v>
       </c>
       <c r="K125" t="s">
         <v>62</v>
@@ -11805,7 +11803,7 @@
         <v>63</v>
       </c>
       <c r="M125" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N125">
         <v>289</v>
@@ -11832,24 +11830,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V125" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B126">
         <v>608</v>
       </c>
       <c r="C126" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D126" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E126" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F126" t="s">
         <v>78</v>
@@ -11864,7 +11862,7 @@
         <v>342353</v>
       </c>
       <c r="J126">
-        <v>112.9</v>
+        <v>112900000</v>
       </c>
       <c r="K126" t="s">
         <v>27</v>
@@ -11897,27 +11895,27 @@
         <v>-3.8</v>
       </c>
       <c r="V126" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B127">
         <v>616</v>
       </c>
       <c r="C127" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D127" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E127" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F127" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G127">
         <v>52</v>
@@ -11929,7 +11927,7 @@
         <v>312679</v>
       </c>
       <c r="J127">
-        <v>36.5</v>
+        <v>36500000</v>
       </c>
       <c r="K127" t="s">
         <v>36</v>
@@ -11938,7 +11936,7 @@
         <v>87</v>
       </c>
       <c r="M127" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N127">
         <v>915</v>
@@ -11965,24 +11963,24 @@
         <v>0</v>
       </c>
       <c r="V127" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B128">
         <v>620</v>
       </c>
       <c r="C128" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D128" t="s">
         <v>84</v>
       </c>
       <c r="E128" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F128" t="s">
         <v>53</v>
@@ -11997,7 +11995,7 @@
         <v>92090</v>
       </c>
       <c r="J128">
-        <v>10.75</v>
+        <v>10750000</v>
       </c>
       <c r="K128" t="s">
         <v>36</v>
@@ -12006,7 +12004,7 @@
         <v>286</v>
       </c>
       <c r="M128" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="N128">
         <v>309</v>
@@ -12033,24 +12031,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V128" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B129">
         <v>630</v>
       </c>
       <c r="C129" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D129" t="s">
         <v>309</v>
       </c>
       <c r="E129" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F129" t="s">
         <v>78</v>
@@ -12065,7 +12063,7 @@
         <v>8870</v>
       </c>
       <c r="J129">
-        <v>3.2</v>
+        <v>3200000</v>
       </c>
       <c r="K129" t="s">
         <v>62</v>
@@ -12083,24 +12081,24 @@
         <v>5.7</v>
       </c>
       <c r="V129" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B130">
         <v>634</v>
       </c>
       <c r="C130" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D130" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E130" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
@@ -12115,7 +12113,7 @@
         <v>11586</v>
       </c>
       <c r="J130">
-        <v>3.12</v>
+        <v>3120000</v>
       </c>
       <c r="K130" t="s">
         <v>27</v>
@@ -12124,7 +12122,7 @@
         <v>71</v>
       </c>
       <c r="M130" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N130">
         <v>218</v>
@@ -12151,24 +12149,24 @@
         <v>17.399999999999999</v>
       </c>
       <c r="V130" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B131">
         <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D131" t="s">
         <v>207</v>
       </c>
       <c r="E131" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F131" t="s">
         <v>133</v>
@@ -12183,7 +12181,7 @@
         <v>342000</v>
       </c>
       <c r="J131">
-        <v>6.33</v>
+        <v>6330000</v>
       </c>
       <c r="K131" t="s">
         <v>45</v>
@@ -12192,7 +12190,7 @@
         <v>54</v>
       </c>
       <c r="M131" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N131">
         <v>16</v>
@@ -12216,27 +12214,27 @@
         <v>2.4</v>
       </c>
       <c r="V131" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B132">
         <v>642</v>
       </c>
       <c r="C132" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D132" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E132" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F132" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G132">
         <v>46</v>
@@ -12248,7 +12246,7 @@
         <v>238391</v>
       </c>
       <c r="J132">
-        <v>19.04</v>
+        <v>19040000</v>
       </c>
       <c r="K132" t="s">
         <v>36</v>
@@ -12257,7 +12255,7 @@
         <v>37</v>
       </c>
       <c r="M132" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N132">
         <v>383</v>
@@ -12284,27 +12282,27 @@
         <v>-7.5</v>
       </c>
       <c r="V132" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B133">
         <v>643</v>
       </c>
       <c r="C133" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D133" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E133" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F133" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G133">
         <v>60</v>
@@ -12316,7 +12314,7 @@
         <v>17098242</v>
       </c>
       <c r="J133">
-        <v>146.19999999999999</v>
+        <v>146200000</v>
       </c>
       <c r="K133" t="s">
         <v>36</v>
@@ -12325,7 +12323,7 @@
         <v>120</v>
       </c>
       <c r="M133" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N133">
         <v>2174</v>
@@ -12352,24 +12350,24 @@
         <v>2.9</v>
       </c>
       <c r="V133" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B134">
         <v>646</v>
       </c>
       <c r="C134" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D134" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E134" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F134" t="s">
         <v>78</v>
@@ -12384,7 +12382,7 @@
         <v>26338</v>
       </c>
       <c r="J134">
-        <v>13.8</v>
+        <v>13800000</v>
       </c>
       <c r="K134" t="s">
         <v>45</v>
@@ -12393,7 +12391,7 @@
         <v>195</v>
       </c>
       <c r="M134" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="N134">
         <v>14</v>
@@ -12420,24 +12418,24 @@
         <v>-13.5</v>
       </c>
       <c r="V134" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B135">
         <v>682</v>
       </c>
       <c r="C135" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D135" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E135" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F135" t="s">
         <v>44</v>
@@ -12452,7 +12450,7 @@
         <v>2149690</v>
       </c>
       <c r="J135">
-        <v>35.299999999999997</v>
+        <v>35300000</v>
       </c>
       <c r="K135" t="s">
         <v>27</v>
@@ -12461,7 +12459,7 @@
         <v>71</v>
       </c>
       <c r="M135" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="N135">
         <v>1238</v>
@@ -12488,24 +12486,24 @@
         <v>5.9</v>
       </c>
       <c r="V135" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B136">
         <v>686</v>
       </c>
       <c r="C136" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D136" t="s">
         <v>131</v>
       </c>
       <c r="E136" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F136" t="s">
         <v>133</v>
@@ -12520,7 +12518,7 @@
         <v>196722</v>
       </c>
       <c r="J136">
-        <v>18.8</v>
+        <v>18800000</v>
       </c>
       <c r="K136" t="s">
         <v>45</v>
@@ -12529,7 +12527,7 @@
         <v>134</v>
       </c>
       <c r="M136" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N136">
         <v>32</v>
@@ -12556,27 +12554,27 @@
         <v>-12.1</v>
       </c>
       <c r="V136" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B137">
         <v>688</v>
       </c>
       <c r="C137" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D137" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E137" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F137" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G137">
         <v>44</v>
@@ -12588,7 +12586,7 @@
         <v>88361</v>
       </c>
       <c r="J137">
-        <v>6.57</v>
+        <v>6570000</v>
       </c>
       <c r="K137" t="s">
         <v>36</v>
@@ -12597,7 +12595,7 @@
         <v>37</v>
       </c>
       <c r="M137" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="N137">
         <v>89</v>
@@ -12624,27 +12622,27 @@
         <v>-6.3</v>
       </c>
       <c r="V137" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B138">
         <v>690</v>
       </c>
       <c r="C138" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D138" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E138" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F138" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G138">
         <v>-4.5833333300000003</v>
@@ -12656,7 +12654,7 @@
         <v>452</v>
       </c>
       <c r="J138">
-        <v>0.1</v>
+        <v>100000</v>
       </c>
       <c r="K138" t="s">
         <v>45</v>
@@ -12686,24 +12684,24 @@
         <v>-7.5</v>
       </c>
       <c r="V138" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B139">
         <v>694</v>
       </c>
       <c r="C139" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D139" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E139" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F139" t="s">
         <v>78</v>
@@ -12718,7 +12716,7 @@
         <v>71740</v>
       </c>
       <c r="J139">
-        <v>8.64</v>
+        <v>8640000</v>
       </c>
       <c r="K139" t="s">
         <v>45</v>
@@ -12727,7 +12725,7 @@
         <v>134</v>
       </c>
       <c r="M139" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="N139">
         <v>8</v>
@@ -12751,24 +12749,24 @@
         <v>-3.8</v>
       </c>
       <c r="V139" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B140">
         <v>702</v>
       </c>
       <c r="C140" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D140" t="s">
+        <v>870</v>
+      </c>
+      <c r="E140" t="s">
         <v>868</v>
-      </c>
-      <c r="E140" t="s">
-        <v>866</v>
       </c>
       <c r="F140" t="s">
         <v>78</v>
@@ -12783,7 +12781,7 @@
         <v>710</v>
       </c>
       <c r="J140">
-        <v>6.04</v>
+        <v>6040000</v>
       </c>
       <c r="K140" t="s">
         <v>27</v>
@@ -12816,27 +12814,27 @@
         <v>17.5</v>
       </c>
       <c r="V140" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B141">
         <v>703</v>
       </c>
       <c r="C141" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D141" t="s">
         <v>84</v>
       </c>
       <c r="E141" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F141" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G141">
         <v>48.666666659999997</v>
@@ -12848,7 +12846,7 @@
         <v>49037</v>
       </c>
       <c r="J141">
-        <v>5.42</v>
+        <v>5420000</v>
       </c>
       <c r="K141" t="s">
         <v>36</v>
@@ -12857,7 +12855,7 @@
         <v>87</v>
       </c>
       <c r="M141" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="N141">
         <v>142</v>
@@ -12884,27 +12882,27 @@
         <v>-2.8</v>
       </c>
       <c r="V141" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B142">
         <v>705</v>
       </c>
       <c r="C142" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D142" t="s">
         <v>84</v>
       </c>
       <c r="E142" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F142" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G142">
         <v>46.11666666</v>
@@ -12916,7 +12914,7 @@
         <v>20273</v>
       </c>
       <c r="J142">
-        <v>2.12</v>
+        <v>2120000</v>
       </c>
       <c r="K142" t="s">
         <v>36</v>
@@ -12925,7 +12923,7 @@
         <v>87</v>
       </c>
       <c r="M142" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="N142">
         <v>72</v>
@@ -12952,24 +12950,24 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="V142" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B143">
         <v>706</v>
       </c>
       <c r="C143" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D143" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E143" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F143" t="s">
         <v>44</v>
@@ -12984,7 +12982,7 @@
         <v>637657</v>
       </c>
       <c r="J143">
-        <v>19.010000000000002</v>
+        <v>19010000</v>
       </c>
       <c r="K143" t="s">
         <v>45</v>
@@ -12993,7 +12991,7 @@
         <v>195</v>
       </c>
       <c r="M143" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="N143">
         <v>12</v>
@@ -13002,27 +13000,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="V143" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B144">
         <v>710</v>
       </c>
       <c r="C144" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D144" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E144" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F144" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G144">
         <v>-29</v>
@@ -13034,7 +13032,7 @@
         <v>1221037</v>
       </c>
       <c r="J144">
-        <v>63.02</v>
+        <v>63020000</v>
       </c>
       <c r="K144" t="s">
         <v>45</v>
@@ -13043,7 +13041,7 @@
         <v>162</v>
       </c>
       <c r="M144" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="N144">
         <v>400</v>
@@ -13070,27 +13068,27 @@
         <v>-0.6</v>
       </c>
       <c r="V144" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B145">
         <v>410</v>
       </c>
       <c r="C145" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D145" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E145" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F145" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G145">
         <v>37</v>
@@ -13102,7 +13100,7 @@
         <v>100210</v>
       </c>
       <c r="J145">
-        <v>51.75</v>
+        <v>51750000</v>
       </c>
       <c r="K145" t="s">
         <v>27</v>
@@ -13111,7 +13109,7 @@
         <v>250</v>
       </c>
       <c r="M145" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N145">
         <v>1713</v>
@@ -13138,24 +13136,24 @@
         <v>5.3</v>
       </c>
       <c r="V145" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B146">
         <v>728</v>
       </c>
       <c r="C146" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D146" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E146" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="F146" t="s">
         <v>78</v>
@@ -13170,7 +13168,7 @@
         <v>619745</v>
       </c>
       <c r="J146">
-        <v>11.94</v>
+        <v>11940000</v>
       </c>
       <c r="K146" t="s">
         <v>45</v>
@@ -13179,7 +13177,7 @@
         <v>54</v>
       </c>
       <c r="M146" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N146">
         <v>12</v>
@@ -13194,24 +13192,24 @@
         <v>12.5</v>
       </c>
       <c r="V146" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B147">
         <v>724</v>
       </c>
       <c r="C147" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D147" t="s">
         <v>84</v>
       </c>
       <c r="E147" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F147" t="s">
         <v>242</v>
@@ -13226,7 +13224,7 @@
         <v>505992</v>
       </c>
       <c r="J147">
-        <v>49.08</v>
+        <v>49080000</v>
       </c>
       <c r="K147" t="s">
         <v>36</v>
@@ -13235,7 +13233,7 @@
         <v>286</v>
       </c>
       <c r="M147" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="N147">
         <v>1723</v>
@@ -13262,27 +13260,27 @@
         <v>3.1</v>
       </c>
       <c r="V147" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B148">
         <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D148" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E148" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F148" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G148">
         <v>7</v>
@@ -13294,7 +13292,7 @@
         <v>65610</v>
       </c>
       <c r="J148">
-        <v>23.1</v>
+        <v>23100000</v>
       </c>
       <c r="K148" t="s">
         <v>27</v>
@@ -13303,7 +13301,7 @@
         <v>28</v>
       </c>
       <c r="M148" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="N148">
         <v>99</v>
@@ -13330,24 +13328,24 @@
         <v>1.2</v>
       </c>
       <c r="V148" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B149">
         <v>729</v>
       </c>
       <c r="C149" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D149" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="E149" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F149" t="s">
         <v>44</v>
@@ -13362,7 +13360,7 @@
         <v>1886068</v>
       </c>
       <c r="J149">
-        <v>50.45</v>
+        <v>50450000</v>
       </c>
       <c r="K149" t="s">
         <v>45</v>
@@ -13371,7 +13369,7 @@
         <v>46</v>
       </c>
       <c r="M149" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="N149">
         <v>50</v>
@@ -13395,27 +13393,27 @@
         <v>-5.5</v>
       </c>
       <c r="V149" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B150">
         <v>740</v>
       </c>
       <c r="C150" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D150" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E150" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F150" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G150">
         <v>4</v>
@@ -13427,7 +13425,7 @@
         <v>163820</v>
       </c>
       <c r="J150">
-        <v>0.63</v>
+        <v>630000</v>
       </c>
       <c r="K150" t="s">
         <v>62</v>
@@ -13436,7 +13434,7 @@
         <v>63</v>
       </c>
       <c r="M150" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="N150">
         <v>5</v>
@@ -13460,27 +13458,27 @@
         <v>0.2</v>
       </c>
       <c r="V150" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B151">
         <v>752</v>
       </c>
       <c r="C151" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D151" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E151" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F151" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="G151">
         <v>62</v>
@@ -13492,7 +13490,7 @@
         <v>450295</v>
       </c>
       <c r="J151">
-        <v>10.59</v>
+        <v>10590000</v>
       </c>
       <c r="K151" t="s">
         <v>36</v>
@@ -13501,7 +13499,7 @@
         <v>293</v>
       </c>
       <c r="M151" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N151">
         <v>610</v>
@@ -13528,24 +13526,24 @@
         <v>6</v>
       </c>
       <c r="V151" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B152">
         <v>756</v>
       </c>
       <c r="C152" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D152" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E152" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F152" t="s">
         <v>133</v>
@@ -13560,7 +13558,7 @@
         <v>41284</v>
       </c>
       <c r="J152">
-        <v>9.0500000000000007</v>
+        <v>9050000</v>
       </c>
       <c r="K152" t="s">
         <v>36</v>
@@ -13569,7 +13567,7 @@
         <v>126</v>
       </c>
       <c r="M152" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="N152">
         <v>937</v>
@@ -13596,24 +13594,24 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="V152" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B153">
         <v>760</v>
       </c>
       <c r="C153" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D153" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E153" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F153" t="s">
         <v>44</v>
@@ -13628,7 +13626,7 @@
         <v>185180</v>
       </c>
       <c r="J153">
-        <v>24.67</v>
+        <v>24670000</v>
       </c>
       <c r="K153" t="s">
         <v>27</v>
@@ -13637,7 +13635,7 @@
         <v>71</v>
       </c>
       <c r="M153" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N153">
         <v>20</v>
@@ -13658,24 +13656,24 @@
         <v>-0.9</v>
       </c>
       <c r="V153" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B154">
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="D154" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E154" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="F154" t="s">
         <v>249</v>
@@ -13690,7 +13688,7 @@
         <v>36193</v>
       </c>
       <c r="J154">
-        <v>23.4</v>
+        <v>23400000</v>
       </c>
       <c r="K154" t="s">
         <v>27</v>
@@ -13723,27 +13721,27 @@
         <v>15.7</v>
       </c>
       <c r="V154" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B155">
         <v>762</v>
       </c>
       <c r="C155" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D155" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E155" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F155" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G155">
         <v>39</v>
@@ -13755,7 +13753,7 @@
         <v>143100</v>
       </c>
       <c r="J155">
-        <v>10.5</v>
+        <v>10500000</v>
       </c>
       <c r="K155" t="s">
         <v>27</v>
@@ -13764,7 +13762,7 @@
         <v>517</v>
       </c>
       <c r="M155" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="N155">
         <v>14</v>
@@ -13788,24 +13786,24 @@
         <v>6.2</v>
       </c>
       <c r="V155" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B156">
         <v>834</v>
       </c>
       <c r="C156" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D156" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="E156" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F156" t="s">
         <v>78</v>
@@ -13820,7 +13818,7 @@
         <v>945087</v>
       </c>
       <c r="J156">
-        <v>66.28</v>
+        <v>66280000</v>
       </c>
       <c r="K156" t="s">
         <v>45</v>
@@ -13829,7 +13827,7 @@
         <v>195</v>
       </c>
       <c r="M156" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="N156">
         <v>79</v>
@@ -13856,27 +13854,27 @@
         <v>-2.5</v>
       </c>
       <c r="V156" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B157">
         <v>764</v>
       </c>
       <c r="C157" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D157" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E157" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F157" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G157">
         <v>15</v>
@@ -13888,7 +13886,7 @@
         <v>513120</v>
       </c>
       <c r="J157">
-        <v>66.05</v>
+        <v>66050000</v>
       </c>
       <c r="K157" t="s">
         <v>27</v>
@@ -13897,7 +13895,7 @@
         <v>176</v>
       </c>
       <c r="M157" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="N157">
         <v>526</v>
@@ -13924,24 +13922,24 @@
         <v>1.4</v>
       </c>
       <c r="V157" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B158">
         <v>768</v>
       </c>
       <c r="C158" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D158" t="s">
         <v>131</v>
       </c>
       <c r="E158" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F158" t="s">
         <v>133</v>
@@ -13956,7 +13954,7 @@
         <v>56785</v>
       </c>
       <c r="J158">
-        <v>9.52</v>
+        <v>9520000</v>
       </c>
       <c r="K158" t="s">
         <v>45</v>
@@ -13965,7 +13963,7 @@
         <v>134</v>
       </c>
       <c r="M158" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="N158">
         <v>10</v>
@@ -13989,24 +13987,24 @@
         <v>-3.3</v>
       </c>
       <c r="V158" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B159">
         <v>780</v>
       </c>
       <c r="C159" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D159" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E159" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F159" t="s">
         <v>78</v>
@@ -14021,7 +14019,7 @@
         <v>5130</v>
       </c>
       <c r="J159">
-        <v>1.37</v>
+        <v>1370000</v>
       </c>
       <c r="K159" t="s">
         <v>62</v>
@@ -14054,24 +14052,24 @@
         <v>6.6</v>
       </c>
       <c r="V159" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B160">
         <v>788</v>
       </c>
       <c r="C160" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D160" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E160" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F160" t="s">
         <v>44</v>
@@ -14086,7 +14084,7 @@
         <v>163610</v>
       </c>
       <c r="J160">
-        <v>11.89</v>
+        <v>11890000</v>
       </c>
       <c r="K160" t="s">
         <v>45</v>
@@ -14095,7 +14093,7 @@
         <v>46</v>
       </c>
       <c r="M160" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="N160">
         <v>53</v>
@@ -14122,27 +14120,27 @@
         <v>-2.7</v>
       </c>
       <c r="V160" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B161">
         <v>792</v>
       </c>
       <c r="C161" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D161" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E161" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F161" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G161">
         <v>39</v>
@@ -14154,7 +14152,7 @@
         <v>783562</v>
       </c>
       <c r="J161">
-        <v>85.67</v>
+        <v>85670000</v>
       </c>
       <c r="K161" t="s">
         <v>27</v>
@@ -14163,7 +14161,7 @@
         <v>71</v>
       </c>
       <c r="M161" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="N161">
         <v>1323</v>
@@ -14190,27 +14188,27 @@
         <v>-0.8</v>
       </c>
       <c r="V161" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B162">
         <v>795</v>
       </c>
       <c r="C162" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D162" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E162" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F162" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G162">
         <v>40</v>
@@ -14222,7 +14220,7 @@
         <v>488100</v>
       </c>
       <c r="J162">
-        <v>7.49</v>
+        <v>7490000</v>
       </c>
       <c r="K162" t="s">
         <v>27</v>
@@ -14231,7 +14229,7 @@
         <v>517</v>
       </c>
       <c r="M162" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="N162">
         <v>64</v>
@@ -14252,24 +14250,24 @@
         <v>5.9</v>
       </c>
       <c r="V162" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B163">
         <v>800</v>
       </c>
       <c r="C163" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D163" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E163" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F163" t="s">
         <v>78</v>
@@ -14284,7 +14282,7 @@
         <v>241550</v>
       </c>
       <c r="J163">
-        <v>50.02</v>
+        <v>50020000</v>
       </c>
       <c r="K163" t="s">
         <v>45</v>
@@ -14293,7 +14291,7 @@
         <v>195</v>
       </c>
       <c r="M163" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="N163">
         <v>54</v>
@@ -14320,27 +14318,27 @@
         <v>-9.2100000000000009</v>
       </c>
       <c r="V163" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B164">
         <v>804</v>
       </c>
       <c r="C164" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D164" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E164" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F164" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G164">
         <v>49</v>
@@ -14352,7 +14350,7 @@
         <v>603500</v>
       </c>
       <c r="J164">
-        <v>41.21</v>
+        <v>41210000</v>
       </c>
       <c r="K164" t="s">
         <v>36</v>
@@ -14361,7 +14359,7 @@
         <v>120</v>
       </c>
       <c r="M164" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N164">
         <v>191</v>
@@ -14388,24 +14386,24 @@
         <v>-8.1</v>
       </c>
       <c r="V164" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B165">
         <v>784</v>
       </c>
       <c r="C165" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D165" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E165" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F165" t="s">
         <v>44</v>
@@ -14420,7 +14418,7 @@
         <v>83600</v>
       </c>
       <c r="J165">
-        <v>10.88</v>
+        <v>10880000</v>
       </c>
       <c r="K165" t="s">
         <v>27</v>
@@ -14429,7 +14427,7 @@
         <v>71</v>
       </c>
       <c r="M165" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="N165">
         <v>537</v>
@@ -14456,24 +14454,24 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="V165" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B166">
         <v>826</v>
       </c>
       <c r="C166" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D166" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="E166" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="F166" t="s">
         <v>78</v>
@@ -14488,7 +14486,7 @@
         <v>242900</v>
       </c>
       <c r="J166">
-        <v>69.23</v>
+        <v>69230000</v>
       </c>
       <c r="K166" t="s">
         <v>36</v>
@@ -14497,7 +14495,7 @@
         <v>293</v>
       </c>
       <c r="M166" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="N166">
         <v>3644</v>
@@ -14524,24 +14522,24 @@
         <v>-2.7</v>
       </c>
       <c r="V166" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B167">
         <v>840</v>
       </c>
       <c r="C167" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D167" t="s">
         <v>309</v>
       </c>
       <c r="E167" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F167" t="s">
         <v>78</v>
@@ -14556,7 +14554,7 @@
         <v>9372610</v>
       </c>
       <c r="J167">
-        <v>341.15</v>
+        <v>341150000</v>
       </c>
       <c r="K167" t="s">
         <v>62</v>
@@ -14565,7 +14563,7 @@
         <v>215</v>
       </c>
       <c r="M167" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="N167">
         <v>29185</v>
@@ -14592,24 +14590,24 @@
         <v>-3.9</v>
       </c>
       <c r="V167" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B168">
         <v>858</v>
       </c>
       <c r="C168" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D168" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E168" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F168" t="s">
         <v>242</v>
@@ -14624,7 +14622,7 @@
         <v>181034</v>
       </c>
       <c r="J168">
-        <v>3.57</v>
+        <v>3570000</v>
       </c>
       <c r="K168" t="s">
         <v>62</v>
@@ -14633,7 +14631,7 @@
         <v>63</v>
       </c>
       <c r="M168" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="N168">
         <v>81</v>
@@ -14660,27 +14658,27 @@
         <v>-3.3</v>
       </c>
       <c r="V168" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B169">
         <v>860</v>
       </c>
       <c r="C169" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D169" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E169" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F169" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G169">
         <v>41</v>
@@ -14692,7 +14690,7 @@
         <v>447400</v>
       </c>
       <c r="J169">
-        <v>36.799999999999997</v>
+        <v>36800000</v>
       </c>
       <c r="K169" t="s">
         <v>27</v>
@@ -14701,7 +14699,7 @@
         <v>517</v>
       </c>
       <c r="M169" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="N169">
         <v>115</v>
@@ -14725,24 +14723,24 @@
         <v>-5</v>
       </c>
       <c r="V169" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B170">
         <v>862</v>
       </c>
       <c r="C170" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D170" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E170" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F170" t="s">
         <v>242</v>
@@ -14757,7 +14755,7 @@
         <v>916445</v>
       </c>
       <c r="J170">
-        <v>34.090000000000003</v>
+        <v>34090000</v>
       </c>
       <c r="K170" t="s">
         <v>62</v>
@@ -14766,7 +14764,7 @@
         <v>63</v>
       </c>
       <c r="M170" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="N170">
         <v>112</v>
@@ -14793,27 +14791,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V170" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B171">
         <v>704</v>
       </c>
       <c r="C171" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D171" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E171" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F171" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G171">
         <v>16.166666660000001</v>
@@ -14825,7 +14823,7 @@
         <v>331212</v>
       </c>
       <c r="J171">
-        <v>101.3</v>
+        <v>101300000</v>
       </c>
       <c r="K171" t="s">
         <v>27</v>
@@ -14834,7 +14832,7 @@
         <v>176</v>
       </c>
       <c r="M171" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="N171">
         <v>476</v>
@@ -14861,24 +14859,24 @@
         <v>6.1</v>
       </c>
       <c r="V171" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B172">
         <v>887</v>
       </c>
       <c r="C172" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D172" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E172" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="F172" t="s">
         <v>44</v>
@@ -14893,7 +14891,7 @@
         <v>527968</v>
       </c>
       <c r="J172">
-        <v>40.58</v>
+        <v>40580000</v>
       </c>
       <c r="K172" t="s">
         <v>27</v>
@@ -14902,7 +14900,7 @@
         <v>71</v>
       </c>
       <c r="M172" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="N172">
         <v>19</v>
@@ -14926,24 +14924,24 @@
         <v>-5.9</v>
       </c>
       <c r="V172" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B173">
         <v>894</v>
       </c>
       <c r="C173" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D173" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E173" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F173" t="s">
         <v>78</v>
@@ -14958,7 +14956,7 @@
         <v>752612</v>
       </c>
       <c r="J173">
-        <v>19.7</v>
+        <v>19700000</v>
       </c>
       <c r="K173" t="s">
         <v>45</v>
@@ -14967,7 +14965,7 @@
         <v>195</v>
       </c>
       <c r="M173" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="N173">
         <v>26</v>
@@ -14991,27 +14989,27 @@
         <v>-1</v>
       </c>
       <c r="V173" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B174">
         <v>716</v>
       </c>
       <c r="C174" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D174" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E174" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F174" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G174">
         <v>-20</v>
@@ -15023,7 +15021,7 @@
         <v>390757</v>
       </c>
       <c r="J174">
-        <v>15.18</v>
+        <v>15180000</v>
       </c>
       <c r="K174" t="s">
         <v>45</v>
@@ -15032,7 +15030,7 @@
         <v>162</v>
       </c>
       <c r="M174" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="N174">
         <v>44</v>
@@ -15056,7 +15054,7 @@
         <v>1.3</v>
       </c>
       <c r="V174" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
